--- a/raw/TV_SO2_Flux_2020-2024.xlsx
+++ b/raw/TV_SO2_Flux_2020-2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rahj\Data Request\Taal Volcano_RaphaelLontoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raphael\Documents\VSCode\CPEN 70\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2303EC2B-52F9-4351-9F5D-6B0653279061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3405BF50-3CD8-4083-BDBF-8BB7154A2BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{B274B5F7-B818-488D-9158-EF597E876A1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B274B5F7-B818-488D-9158-EF597E876A1C}"/>
   </bookViews>
   <sheets>
     <sheet name="TV SO2 Flux" sheetId="1" r:id="rId1"/>
@@ -1979,7 +1979,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2110,6 +2110,17 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2412,7 +2423,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2455,20 +2466,21 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2506,6 +2518,7 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="42" xr:uid="{12550C07-0098-4612-ADCE-8D98CD9BFBEC}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -2526,9 +2539,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2566,7 +2579,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2672,7 +2685,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2814,7 +2827,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2824,18 +2837,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98A14F8-EB17-4578-B510-D9A194C4F4B2}">
   <dimension ref="A1:B652"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A487" workbookViewId="0">
+      <selection activeCell="E491" sqref="E491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2843,66 +2856,66 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>2753</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1181</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>8322</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>5800</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>2825</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>1706</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>1207</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>3964</v>
       </c>
     </row>
@@ -2910,7 +2923,7 @@
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>7216</v>
       </c>
     </row>
@@ -2918,7 +2931,7 @@
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>6307</v>
       </c>
     </row>
@@ -2926,7 +2939,7 @@
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>7580</v>
       </c>
     </row>
@@ -2934,7 +2947,7 @@
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>3997</v>
       </c>
     </row>
@@ -2942,7 +2955,7 @@
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>4727</v>
       </c>
     </row>
@@ -2950,7 +2963,7 @@
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>5115</v>
       </c>
     </row>
@@ -2958,7 +2971,7 @@
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>2039</v>
       </c>
     </row>
@@ -2966,7 +2979,7 @@
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>480</v>
       </c>
     </row>
@@ -2974,7 +2987,7 @@
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>1256</v>
       </c>
     </row>
@@ -2982,7 +2995,7 @@
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>1577</v>
       </c>
     </row>
@@ -2990,7 +3003,7 @@
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>2064</v>
       </c>
     </row>
@@ -2998,7 +3011,7 @@
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>1256</v>
       </c>
     </row>
@@ -3006,7 +3019,7 @@
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>2256</v>
       </c>
     </row>
@@ -3014,7 +3027,7 @@
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>1267</v>
       </c>
     </row>
@@ -3022,7 +3035,7 @@
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>2068</v>
       </c>
     </row>
@@ -3030,7 +3043,7 @@
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>3276</v>
       </c>
     </row>
@@ -3038,7 +3051,7 @@
       <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>2532</v>
       </c>
     </row>
@@ -3046,7 +3059,7 @@
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>1354</v>
       </c>
     </row>
@@ -3054,7 +3067,7 @@
       <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>1510</v>
       </c>
     </row>
@@ -3062,7 +3075,7 @@
       <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>3176</v>
       </c>
     </row>
@@ -3070,7 +3083,7 @@
       <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>4899</v>
       </c>
     </row>
@@ -3078,7 +3091,7 @@
       <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>8927</v>
       </c>
     </row>
@@ -3086,7 +3099,7 @@
       <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>8223</v>
       </c>
     </row>
@@ -3094,7 +3107,7 @@
       <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>6342</v>
       </c>
     </row>
@@ -3102,7 +3115,7 @@
       <c r="A34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>4213</v>
       </c>
     </row>
@@ -3110,7 +3123,7 @@
       <c r="A35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>1379</v>
       </c>
     </row>
@@ -3118,7 +3131,7 @@
       <c r="A36" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>9645</v>
       </c>
     </row>
@@ -3126,7 +3139,7 @@
       <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>4398</v>
       </c>
     </row>
@@ -3134,7 +3147,7 @@
       <c r="A38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>2921</v>
       </c>
     </row>
@@ -3142,7 +3155,7 @@
       <c r="A39" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>3334</v>
       </c>
     </row>
@@ -3150,7 +3163,7 @@
       <c r="A40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>1186</v>
       </c>
     </row>
@@ -3158,7 +3171,7 @@
       <c r="A41" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>5128</v>
       </c>
     </row>
@@ -3166,7 +3179,7 @@
       <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>3355</v>
       </c>
     </row>
@@ -3174,7 +3187,7 @@
       <c r="A43" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>2655</v>
       </c>
     </row>
@@ -3182,7 +3195,7 @@
       <c r="A44" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>5095</v>
       </c>
     </row>
@@ -3190,7 +3203,7 @@
       <c r="A45" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>4666</v>
       </c>
     </row>
@@ -3198,7 +3211,7 @@
       <c r="A46" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>3309</v>
       </c>
     </row>
@@ -3206,7 +3219,7 @@
       <c r="A47" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>1709</v>
       </c>
     </row>
@@ -3214,7 +3227,7 @@
       <c r="A48" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>1546</v>
       </c>
     </row>
@@ -3222,7 +3235,7 @@
       <c r="A49" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="2">
         <v>4950</v>
       </c>
     </row>
@@ -3230,7 +3243,7 @@
       <c r="A50" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <v>5236</v>
       </c>
     </row>
@@ -3238,7 +3251,7 @@
       <c r="A51" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="2">
         <v>11745</v>
       </c>
     </row>
@@ -3246,7 +3259,7 @@
       <c r="A52" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="2">
         <v>2517</v>
       </c>
     </row>
@@ -3254,7 +3267,7 @@
       <c r="A53" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="2">
         <v>2116</v>
       </c>
     </row>
@@ -3262,7 +3275,7 @@
       <c r="A54" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>6571</v>
       </c>
     </row>
@@ -3270,7 +3283,7 @@
       <c r="A55" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="2">
         <v>5100</v>
       </c>
     </row>
@@ -3278,7 +3291,7 @@
       <c r="A56" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="2">
         <v>4641</v>
       </c>
     </row>
@@ -3286,7 +3299,7 @@
       <c r="A57" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="2">
         <v>5478</v>
       </c>
     </row>
@@ -3294,7 +3307,7 @@
       <c r="A58" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="2">
         <v>1977</v>
       </c>
     </row>
@@ -3302,7 +3315,7 @@
       <c r="A59" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="2">
         <v>2470</v>
       </c>
     </row>
@@ -3310,7 +3323,7 @@
       <c r="A60" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="2">
         <v>11072</v>
       </c>
     </row>
@@ -3318,7 +3331,7 @@
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="2">
         <v>1454</v>
       </c>
     </row>
@@ -3326,7 +3339,7 @@
       <c r="A62" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="2">
         <v>10469</v>
       </c>
     </row>
@@ -3334,7 +3347,7 @@
       <c r="A63" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="2">
         <v>3164</v>
       </c>
     </row>
@@ -3342,7 +3355,7 @@
       <c r="A64" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="2">
         <v>4063</v>
       </c>
     </row>
@@ -3350,7 +3363,7 @@
       <c r="A65" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="2">
         <v>3823</v>
       </c>
     </row>
@@ -3358,7 +3371,7 @@
       <c r="A66" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="2">
         <v>5922</v>
       </c>
     </row>
@@ -3366,7 +3379,7 @@
       <c r="A67" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="2">
         <v>5094</v>
       </c>
     </row>
@@ -3374,7 +3387,7 @@
       <c r="A68" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="2">
         <v>2346</v>
       </c>
     </row>
@@ -3382,7 +3395,7 @@
       <c r="A69" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="2">
         <v>2191</v>
       </c>
     </row>
@@ -3390,7 +3403,7 @@
       <c r="A70" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="2">
         <v>2171</v>
       </c>
     </row>
@@ -3398,7 +3411,7 @@
       <c r="A71" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="2">
         <v>2671</v>
       </c>
     </row>
@@ -3406,7 +3419,7 @@
       <c r="A72" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="2">
         <v>3383</v>
       </c>
     </row>
@@ -3414,7 +3427,7 @@
       <c r="A73" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="2">
         <v>3504</v>
       </c>
     </row>
@@ -3422,7 +3435,7 @@
       <c r="A74" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="2">
         <v>2104</v>
       </c>
     </row>
@@ -3430,7 +3443,7 @@
       <c r="A75" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="2">
         <v>2516</v>
       </c>
     </row>
@@ -3438,7 +3451,7 @@
       <c r="A76" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="2">
         <v>4709</v>
       </c>
     </row>
@@ -3446,7 +3459,7 @@
       <c r="A77" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="2">
         <v>9677</v>
       </c>
     </row>
@@ -3454,7 +3467,7 @@
       <c r="A78" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="2">
         <v>9311</v>
       </c>
     </row>
@@ -3462,7 +3475,7 @@
       <c r="A79" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="2">
         <v>8524</v>
       </c>
     </row>
@@ -3470,7 +3483,7 @@
       <c r="A80" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="2">
         <v>8813</v>
       </c>
     </row>
@@ -3478,7 +3491,7 @@
       <c r="A81" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="2">
         <v>10796</v>
       </c>
     </row>
@@ -3486,7 +3499,7 @@
       <c r="A82" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="2">
         <v>18638</v>
       </c>
     </row>
@@ -3494,7 +3507,7 @@
       <c r="A83" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="2">
         <v>5856</v>
       </c>
     </row>
@@ -3502,7 +3515,7 @@
       <c r="A84" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="2">
         <v>14287</v>
       </c>
     </row>
@@ -3510,7 +3523,7 @@
       <c r="A85" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="2">
         <v>6102</v>
       </c>
     </row>
@@ -3518,7 +3531,7 @@
       <c r="A86" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="2">
         <v>10561</v>
       </c>
     </row>
@@ -3526,7 +3539,7 @@
       <c r="A87" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="2">
         <v>13991</v>
       </c>
     </row>
@@ -3534,7 +3547,7 @@
       <c r="A88" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="2">
         <v>2897</v>
       </c>
     </row>
@@ -3542,7 +3555,7 @@
       <c r="A89" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="2">
         <v>6837</v>
       </c>
     </row>
@@ -3550,7 +3563,7 @@
       <c r="A90" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="2">
         <v>5911</v>
       </c>
     </row>
@@ -3558,7 +3571,7 @@
       <c r="A91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="2">
         <v>9863</v>
       </c>
     </row>
@@ -3566,7 +3579,7 @@
       <c r="A92" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="2">
         <v>12667</v>
       </c>
     </row>
@@ -3574,7 +3587,7 @@
       <c r="A93" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="2">
         <v>11448</v>
       </c>
     </row>
@@ -3582,7 +3595,7 @@
       <c r="A94" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="2">
         <v>14558</v>
       </c>
     </row>
@@ -3590,7 +3603,7 @@
       <c r="A95" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="2">
         <v>5395</v>
       </c>
     </row>
@@ -3598,7 +3611,7 @@
       <c r="A96" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="2">
         <v>7519</v>
       </c>
     </row>
@@ -3606,7 +3619,7 @@
       <c r="A97" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="2">
         <v>9510</v>
       </c>
     </row>
@@ -3614,7 +3627,7 @@
       <c r="A98" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="2">
         <v>14211</v>
       </c>
     </row>
@@ -3622,7 +3635,7 @@
       <c r="A99" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="2">
         <v>10331</v>
       </c>
     </row>
@@ -3630,7 +3643,7 @@
       <c r="A100" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="2">
         <v>9757</v>
       </c>
     </row>
@@ -3638,7 +3651,7 @@
       <c r="A101" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="2">
         <v>5459</v>
       </c>
     </row>
@@ -3646,7 +3659,7 @@
       <c r="A102" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="2">
         <v>6911</v>
       </c>
     </row>
@@ -3654,7 +3667,7 @@
       <c r="A103" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="2">
         <v>10848</v>
       </c>
     </row>
@@ -3662,7 +3675,7 @@
       <c r="A104" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="2">
         <v>12669</v>
       </c>
     </row>
@@ -3670,7 +3683,7 @@
       <c r="A105" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="2">
         <v>15145</v>
       </c>
     </row>
@@ -3678,7 +3691,7 @@
       <c r="A106" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="2">
         <v>12591</v>
       </c>
     </row>
@@ -3686,7 +3699,7 @@
       <c r="A107" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="2">
         <v>12063</v>
       </c>
     </row>
@@ -3694,7 +3707,7 @@
       <c r="A108" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="2">
         <v>8109</v>
       </c>
     </row>
@@ -3702,7 +3715,7 @@
       <c r="A109" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="2">
         <v>10977</v>
       </c>
     </row>
@@ -3710,7 +3723,7 @@
       <c r="A110" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="2">
         <v>10933</v>
       </c>
     </row>
@@ -3718,7 +3731,7 @@
       <c r="A111" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="2">
         <v>12685</v>
       </c>
     </row>
@@ -3726,7 +3739,7 @@
       <c r="A112" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="2">
         <v>11434</v>
       </c>
     </row>
@@ -3734,7 +3747,7 @@
       <c r="A113" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="2">
         <v>8931</v>
       </c>
     </row>
@@ -3742,7 +3755,7 @@
       <c r="A114" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="2">
         <v>9557</v>
       </c>
     </row>
@@ -3750,7 +3763,7 @@
       <c r="A115" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="2">
         <v>6609</v>
       </c>
     </row>
@@ -3758,7 +3771,7 @@
       <c r="A116" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="2">
         <v>6609</v>
       </c>
     </row>
@@ -3766,7 +3779,7 @@
       <c r="A117" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="2">
         <v>11437</v>
       </c>
     </row>
@@ -3774,7 +3787,7 @@
       <c r="A118" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="2">
         <v>11265</v>
       </c>
     </row>
@@ -3782,7 +3795,7 @@
       <c r="A119" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="2">
         <v>8243</v>
       </c>
     </row>
@@ -3790,7 +3803,7 @@
       <c r="A120" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="2">
         <v>8012</v>
       </c>
     </row>
@@ -3798,7 +3811,7 @@
       <c r="A121" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="2">
         <v>7453</v>
       </c>
     </row>
@@ -3806,7 +3819,7 @@
       <c r="A122" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="2">
         <v>11962</v>
       </c>
     </row>
@@ -3814,7 +3827,7 @@
       <c r="A123" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="2">
         <v>7608</v>
       </c>
     </row>
@@ -3822,7 +3835,7 @@
       <c r="A124" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" s="2">
         <v>4991</v>
       </c>
     </row>
@@ -3830,7 +3843,7 @@
       <c r="A125" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" s="2">
         <v>8024</v>
       </c>
     </row>
@@ -3838,7 +3851,7 @@
       <c r="A126" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" s="2">
         <v>11695</v>
       </c>
     </row>
@@ -3846,7 +3859,7 @@
       <c r="A127" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127" s="2">
         <v>10539</v>
       </c>
     </row>
@@ -3854,7 +3867,7 @@
       <c r="A128" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128" s="2">
         <v>6179</v>
       </c>
     </row>
@@ -3862,7 +3875,7 @@
       <c r="A129" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129" s="2">
         <v>6342</v>
       </c>
     </row>
@@ -3870,7 +3883,7 @@
       <c r="A130" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" s="2">
         <v>11499</v>
       </c>
     </row>
@@ -3878,7 +3891,7 @@
       <c r="A131" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131" s="2">
         <v>5282</v>
       </c>
     </row>
@@ -3886,7 +3899,7 @@
       <c r="A132" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132" s="2">
         <v>6154</v>
       </c>
     </row>
@@ -3894,7 +3907,7 @@
       <c r="A133" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133" s="2">
         <v>7084</v>
       </c>
     </row>
@@ -3902,7 +3915,7 @@
       <c r="A134" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134" s="2">
         <v>6661</v>
       </c>
     </row>
@@ -3910,7 +3923,7 @@
       <c r="A135" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" s="2">
         <v>7814</v>
       </c>
     </row>
@@ -3918,7 +3931,7 @@
       <c r="A136" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="2">
         <v>6812</v>
       </c>
     </row>
@@ -3926,7 +3939,7 @@
       <c r="A137" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="2">
         <v>7560</v>
       </c>
     </row>
@@ -3934,7 +3947,7 @@
       <c r="A138" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="2">
         <v>4878</v>
       </c>
     </row>
@@ -3942,7 +3955,7 @@
       <c r="A139" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="2">
         <v>9762</v>
       </c>
     </row>
@@ -3950,7 +3963,7 @@
       <c r="A140" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="2">
         <v>2887</v>
       </c>
     </row>
@@ -3958,7 +3971,7 @@
       <c r="A141" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="2">
         <v>6051</v>
       </c>
     </row>
@@ -3966,7 +3979,7 @@
       <c r="A142" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="2">
         <v>3465</v>
       </c>
     </row>
@@ -3974,7 +3987,7 @@
       <c r="A143" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="2">
         <v>4638</v>
       </c>
     </row>
@@ -3982,7 +3995,7 @@
       <c r="A144" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="2">
         <v>1902</v>
       </c>
     </row>
@@ -3990,7 +4003,7 @@
       <c r="A145" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="2">
         <v>3793</v>
       </c>
     </row>
@@ -3998,7 +4011,7 @@
       <c r="A146" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="2">
         <v>2088</v>
       </c>
     </row>
@@ -4006,7 +4019,7 @@
       <c r="A147" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="2">
         <v>2390</v>
       </c>
     </row>
@@ -4014,7 +4027,7 @@
       <c r="A148" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148" s="2">
         <v>2730</v>
       </c>
     </row>
@@ -4022,7 +4035,7 @@
       <c r="A149" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149" s="2">
         <v>4569</v>
       </c>
     </row>
@@ -4030,7 +4043,7 @@
       <c r="A150" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" s="2">
         <v>4322</v>
       </c>
     </row>
@@ -4038,7 +4051,7 @@
       <c r="A151" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" s="2">
         <v>3264</v>
       </c>
     </row>
@@ -4046,7 +4059,7 @@
       <c r="A152" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" s="2">
         <v>2485</v>
       </c>
     </row>
@@ -4054,7 +4067,7 @@
       <c r="A153" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153" s="2">
         <v>2371</v>
       </c>
     </row>
@@ -4062,7 +4075,7 @@
       <c r="A154" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154" s="2">
         <v>1141</v>
       </c>
     </row>
@@ -4070,7 +4083,7 @@
       <c r="A155" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155" s="2">
         <v>3763</v>
       </c>
     </row>
@@ -4078,7 +4091,7 @@
       <c r="A156" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156" s="2">
         <v>4819</v>
       </c>
     </row>
@@ -4086,7 +4099,7 @@
       <c r="A157" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157" s="2">
         <v>2605</v>
       </c>
     </row>
@@ -4094,7 +4107,7 @@
       <c r="A158" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158" s="2">
         <v>1209</v>
       </c>
     </row>
@@ -4102,7 +4115,7 @@
       <c r="A159" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159" s="2">
         <v>2231</v>
       </c>
     </row>
@@ -4110,7 +4123,7 @@
       <c r="A160" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160" s="2">
         <v>5178</v>
       </c>
     </row>
@@ -4118,7 +4131,7 @@
       <c r="A161" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161" s="2">
         <v>4510</v>
       </c>
     </row>
@@ -4126,7 +4139,7 @@
       <c r="A162" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162" s="2">
         <v>1874</v>
       </c>
     </row>
@@ -4134,7 +4147,7 @@
       <c r="A163" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B163" s="2">
         <v>3305</v>
       </c>
     </row>
@@ -4142,7 +4155,7 @@
       <c r="A164" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B164" s="2">
         <v>5887</v>
       </c>
     </row>
@@ -4150,7 +4163,7 @@
       <c r="A165" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165" s="2">
         <v>5887</v>
       </c>
     </row>
@@ -4158,7 +4171,7 @@
       <c r="A166" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166" s="2">
         <v>3482</v>
       </c>
     </row>
@@ -4166,7 +4179,7 @@
       <c r="A167" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B167" s="2">
         <v>9623</v>
       </c>
     </row>
@@ -4174,7 +4187,7 @@
       <c r="A168" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168" s="2">
         <v>4472</v>
       </c>
     </row>
@@ -4182,7 +4195,7 @@
       <c r="A169" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169" s="2">
         <v>1165</v>
       </c>
     </row>
@@ -4190,7 +4203,7 @@
       <c r="A170" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B170" s="3">
+      <c r="B170" s="2">
         <v>7480</v>
       </c>
     </row>
@@ -4198,7 +4211,7 @@
       <c r="A171" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171" s="2">
         <v>4706</v>
       </c>
     </row>
@@ -4206,7 +4219,7 @@
       <c r="A172" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B172" s="3">
+      <c r="B172" s="2">
         <v>2177</v>
       </c>
     </row>
@@ -4214,7 +4227,7 @@
       <c r="A173" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B173" s="3">
+      <c r="B173" s="2">
         <v>7643</v>
       </c>
     </row>
@@ -4222,7 +4235,7 @@
       <c r="A174" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B174" s="3">
+      <c r="B174" s="2">
         <v>5024</v>
       </c>
     </row>
@@ -4230,7 +4243,7 @@
       <c r="A175" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B175" s="3">
+      <c r="B175" s="2">
         <v>6884</v>
       </c>
     </row>
@@ -4238,7 +4251,7 @@
       <c r="A176" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B176" s="3">
+      <c r="B176" s="2">
         <v>6304</v>
       </c>
     </row>
@@ -4246,7 +4259,7 @@
       <c r="A177" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B177" s="3">
+      <c r="B177" s="2">
         <v>2941</v>
       </c>
     </row>
@@ -4254,7 +4267,7 @@
       <c r="A178" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B178" s="3">
+      <c r="B178" s="2">
         <v>5718</v>
       </c>
     </row>
@@ -4262,7 +4275,7 @@
       <c r="A179" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B179" s="3">
+      <c r="B179" s="2">
         <v>7680</v>
       </c>
     </row>
@@ -4270,7 +4283,7 @@
       <c r="A180" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B180" s="3">
+      <c r="B180" s="2">
         <v>9391</v>
       </c>
     </row>
@@ -4278,7 +4291,7 @@
       <c r="A181" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B181" s="3">
+      <c r="B181" s="2">
         <v>5831</v>
       </c>
     </row>
@@ -4286,7 +4299,7 @@
       <c r="A182" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B182" s="3">
+      <c r="B182" s="2">
         <v>6565</v>
       </c>
     </row>
@@ -4294,7 +4307,7 @@
       <c r="A183" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B183" s="3">
+      <c r="B183" s="2">
         <v>3730</v>
       </c>
     </row>
@@ -4302,7 +4315,7 @@
       <c r="A184" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B184" s="3">
+      <c r="B184" s="2">
         <v>6394</v>
       </c>
     </row>
@@ -4310,7 +4323,7 @@
       <c r="A185" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B185" s="3">
+      <c r="B185" s="2">
         <v>704</v>
       </c>
     </row>
@@ -4318,7 +4331,7 @@
       <c r="A186" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B186" s="3">
+      <c r="B186" s="2">
         <v>1766</v>
       </c>
     </row>
@@ -4326,7 +4339,7 @@
       <c r="A187" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B187" s="3">
+      <c r="B187" s="2">
         <v>3679</v>
       </c>
     </row>
@@ -4334,7 +4347,7 @@
       <c r="A188" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B188" s="3">
+      <c r="B188" s="2">
         <v>2724</v>
       </c>
     </row>
@@ -4342,7 +4355,7 @@
       <c r="A189" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B189" s="3">
+      <c r="B189" s="2">
         <v>2881</v>
       </c>
     </row>
@@ -4350,7 +4363,7 @@
       <c r="A190" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B190" s="3">
+      <c r="B190" s="2">
         <v>3645</v>
       </c>
     </row>
@@ -4358,7 +4371,7 @@
       <c r="A191" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B191" s="3">
+      <c r="B191" s="2">
         <v>3351</v>
       </c>
     </row>
@@ -4366,7 +4379,7 @@
       <c r="A192" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B192" s="3">
+      <c r="B192" s="2">
         <v>4080</v>
       </c>
     </row>
@@ -4374,7 +4387,7 @@
       <c r="A193" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B193" s="3">
+      <c r="B193" s="2">
         <v>3327</v>
       </c>
     </row>
@@ -4382,7 +4395,7 @@
       <c r="A194" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B194" s="3">
+      <c r="B194" s="2">
         <v>1706</v>
       </c>
     </row>
@@ -4390,7 +4403,7 @@
       <c r="A195" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B195" s="3">
+      <c r="B195" s="2">
         <v>1675</v>
       </c>
     </row>
@@ -4398,7 +4411,7 @@
       <c r="A196" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B196" s="3">
+      <c r="B196" s="2">
         <v>3097</v>
       </c>
     </row>
@@ -4406,7 +4419,7 @@
       <c r="A197" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B197" s="3">
+      <c r="B197" s="2">
         <v>2652</v>
       </c>
     </row>
@@ -4414,7 +4427,7 @@
       <c r="A198" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B198" s="3">
+      <c r="B198" s="2">
         <v>2180</v>
       </c>
     </row>
@@ -4422,7 +4435,7 @@
       <c r="A199" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B199" s="3">
+      <c r="B199" s="2">
         <v>2999</v>
       </c>
     </row>
@@ -4430,7 +4443,7 @@
       <c r="A200" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B200" s="3">
+      <c r="B200" s="2">
         <v>4062</v>
       </c>
     </row>
@@ -4438,7 +4451,7 @@
       <c r="A201" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B201" s="3">
+      <c r="B201" s="2">
         <v>2225</v>
       </c>
     </row>
@@ -4446,7 +4459,7 @@
       <c r="A202" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B202" s="3">
+      <c r="B202" s="2">
         <v>3037</v>
       </c>
     </row>
@@ -4454,7 +4467,7 @@
       <c r="A203" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B203" s="3">
+      <c r="B203" s="2">
         <v>5176</v>
       </c>
     </row>
@@ -4462,7 +4475,7 @@
       <c r="A204" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B204" s="3">
+      <c r="B204" s="2">
         <v>4243</v>
       </c>
     </row>
@@ -4470,7 +4483,7 @@
       <c r="A205" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B205" s="3">
+      <c r="B205" s="2">
         <v>5582</v>
       </c>
     </row>
@@ -4478,7 +4491,7 @@
       <c r="A206" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B206" s="3">
+      <c r="B206" s="2">
         <v>2305</v>
       </c>
     </row>
@@ -4486,7 +4499,7 @@
       <c r="A207" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B207" s="3">
+      <c r="B207" s="2">
         <v>3964</v>
       </c>
     </row>
@@ -4494,7 +4507,7 @@
       <c r="A208" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B208" s="3">
+      <c r="B208" s="2">
         <v>4758</v>
       </c>
     </row>
@@ -4502,7 +4515,7 @@
       <c r="A209" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B209" s="3">
+      <c r="B209" s="2">
         <v>6574</v>
       </c>
     </row>
@@ -4510,7 +4523,7 @@
       <c r="A210" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B210" s="3">
+      <c r="B210" s="2">
         <v>4171</v>
       </c>
     </row>
@@ -4518,7 +4531,7 @@
       <c r="A211" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B211" s="3">
+      <c r="B211" s="2">
         <v>3063</v>
       </c>
     </row>
@@ -4526,7 +4539,7 @@
       <c r="A212" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B212" s="3">
+      <c r="B212" s="2">
         <v>4448</v>
       </c>
     </row>
@@ -4534,7 +4547,7 @@
       <c r="A213" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B213" s="3">
+      <c r="B213" s="2">
         <v>4228</v>
       </c>
     </row>
@@ -4542,7 +4555,7 @@
       <c r="A214" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B214" s="3">
+      <c r="B214" s="2">
         <v>4761</v>
       </c>
     </row>
@@ -4550,7 +4563,7 @@
       <c r="A215" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B215" s="3">
+      <c r="B215" s="2">
         <v>4026</v>
       </c>
     </row>
@@ -4558,7 +4571,7 @@
       <c r="A216" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B216" s="3">
+      <c r="B216" s="2">
         <v>6578</v>
       </c>
     </row>
@@ -4566,7 +4579,7 @@
       <c r="A217" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B217" s="3">
+      <c r="B217" s="2">
         <v>6298</v>
       </c>
     </row>
@@ -4574,7 +4587,7 @@
       <c r="A218" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B218" s="3">
+      <c r="B218" s="2">
         <v>3718</v>
       </c>
     </row>
@@ -4582,7 +4595,7 @@
       <c r="A219" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B219" s="3">
+      <c r="B219" s="2">
         <v>8575</v>
       </c>
     </row>
@@ -4590,7 +4603,7 @@
       <c r="A220" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B220" s="3">
+      <c r="B220" s="2">
         <v>4273</v>
       </c>
     </row>
@@ -4598,7 +4611,7 @@
       <c r="A221" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B221" s="3">
+      <c r="B221" s="2">
         <v>3891</v>
       </c>
     </row>
@@ -4606,7 +4619,7 @@
       <c r="A222" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B222" s="3">
+      <c r="B222" s="2">
         <v>2098</v>
       </c>
     </row>
@@ -4614,7 +4627,7 @@
       <c r="A223" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B223" s="3">
+      <c r="B223" s="2">
         <v>5854</v>
       </c>
     </row>
@@ -4622,7 +4635,7 @@
       <c r="A224" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B224" s="3">
+      <c r="B224" s="2">
         <v>3216</v>
       </c>
     </row>
@@ -4630,7 +4643,7 @@
       <c r="A225" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B225" s="3">
+      <c r="B225" s="2">
         <v>3216</v>
       </c>
     </row>
@@ -4638,7 +4651,7 @@
       <c r="A226" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B226" s="3">
+      <c r="B226" s="2">
         <v>2163</v>
       </c>
     </row>
@@ -4646,7 +4659,7 @@
       <c r="A227" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B227" s="3">
+      <c r="B227" s="2">
         <v>2318</v>
       </c>
     </row>
@@ -4654,7 +4667,7 @@
       <c r="A228" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B228" s="3">
+      <c r="B228" s="2">
         <v>2115</v>
       </c>
     </row>
@@ -4662,7 +4675,7 @@
       <c r="A229" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B229" s="3">
+      <c r="B229" s="2">
         <v>1965</v>
       </c>
     </row>
@@ -4670,7 +4683,7 @@
       <c r="A230" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B230" s="3">
+      <c r="B230" s="2">
         <v>2271</v>
       </c>
     </row>
@@ -4678,7 +4691,7 @@
       <c r="A231" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B231" s="3">
+      <c r="B231" s="2">
         <v>1150</v>
       </c>
     </row>
@@ -4686,7 +4699,7 @@
       <c r="A232" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B232" s="3">
+      <c r="B232" s="2">
         <v>2921</v>
       </c>
     </row>
@@ -4694,7 +4707,7 @@
       <c r="A233" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B233" s="3">
+      <c r="B233" s="2">
         <v>1286</v>
       </c>
     </row>
@@ -4702,7 +4715,7 @@
       <c r="A234" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B234" s="3">
+      <c r="B234" s="2">
         <v>1283</v>
       </c>
     </row>
@@ -4710,7 +4723,7 @@
       <c r="A235" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B235" s="3">
+      <c r="B235" s="2">
         <v>1019</v>
       </c>
     </row>
@@ -4718,7 +4731,7 @@
       <c r="A236" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B236" s="3">
+      <c r="B236" s="2">
         <v>886</v>
       </c>
     </row>
@@ -4726,7 +4739,7 @@
       <c r="A237" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B237" s="3">
+      <c r="B237" s="2">
         <v>2010</v>
       </c>
     </row>
@@ -4734,7 +4747,7 @@
       <c r="A238" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B238" s="3">
+      <c r="B238" s="2">
         <v>544</v>
       </c>
     </row>
@@ -4742,7 +4755,7 @@
       <c r="A239" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B239" s="3">
+      <c r="B239" s="2">
         <v>1403</v>
       </c>
     </row>
@@ -4750,7 +4763,7 @@
       <c r="A240" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B240" s="3">
+      <c r="B240" s="2">
         <v>6702</v>
       </c>
     </row>
@@ -4758,7 +4771,7 @@
       <c r="A241" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B241" s="3">
+      <c r="B241" s="2">
         <v>4422</v>
       </c>
     </row>
@@ -4766,7 +4779,7 @@
       <c r="A242" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B242" s="3">
+      <c r="B242" s="2">
         <v>3882</v>
       </c>
     </row>
@@ -4774,7 +4787,7 @@
       <c r="A243" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B243" s="3">
+      <c r="B243" s="2">
         <v>2089</v>
       </c>
     </row>
@@ -4782,7 +4795,7 @@
       <c r="A244" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B244" s="3">
+      <c r="B244" s="2">
         <v>2231</v>
       </c>
     </row>
@@ -4790,7 +4803,7 @@
       <c r="A245" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B245" s="3">
+      <c r="B245" s="2">
         <v>4431</v>
       </c>
     </row>
@@ -4798,7 +4811,7 @@
       <c r="A246" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B246" s="3">
+      <c r="B246" s="2">
         <v>7015</v>
       </c>
     </row>
@@ -4806,7 +4819,7 @@
       <c r="A247" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B247" s="3">
+      <c r="B247" s="2">
         <v>10718</v>
       </c>
     </row>
@@ -4814,7 +4827,7 @@
       <c r="A248" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B248" s="3">
+      <c r="B248" s="2">
         <v>2506</v>
       </c>
     </row>
@@ -4822,7 +4835,7 @@
       <c r="A249" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B249" s="3">
+      <c r="B249" s="2">
         <v>8107</v>
       </c>
     </row>
@@ -4830,7 +4843,7 @@
       <c r="A250" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B250" s="3">
+      <c r="B250" s="2">
         <v>5915</v>
       </c>
     </row>
@@ -4838,7 +4851,7 @@
       <c r="A251" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B251" s="3">
+      <c r="B251" s="2">
         <v>4301</v>
       </c>
     </row>
@@ -4846,7 +4859,7 @@
       <c r="A252" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B252" s="3">
+      <c r="B252" s="2">
         <v>1725</v>
       </c>
     </row>
@@ -4854,7 +4867,7 @@
       <c r="A253" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B253" s="3">
+      <c r="B253" s="2">
         <v>3265</v>
       </c>
     </row>
@@ -4862,7 +4875,7 @@
       <c r="A254" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B254" s="3">
+      <c r="B254" s="2">
         <v>997</v>
       </c>
     </row>
@@ -4870,7 +4883,7 @@
       <c r="A255" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B255" s="3">
+      <c r="B255" s="2">
         <v>47</v>
       </c>
     </row>
@@ -4878,7 +4891,7 @@
       <c r="A256" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B256" s="3">
+      <c r="B256" s="2">
         <v>56</v>
       </c>
     </row>
@@ -4886,7 +4899,7 @@
       <c r="A257" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B257" s="3">
+      <c r="B257" s="2">
         <v>527</v>
       </c>
     </row>
@@ -4894,7 +4907,7 @@
       <c r="A258" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B258" s="3">
+      <c r="B258" s="2">
         <v>595</v>
       </c>
     </row>
@@ -4902,7 +4915,7 @@
       <c r="A259" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B259" s="3">
+      <c r="B259" s="2">
         <v>544</v>
       </c>
     </row>
@@ -4910,7 +4923,7 @@
       <c r="A260" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B260" s="3">
+      <c r="B260" s="2">
         <v>1511</v>
       </c>
     </row>
@@ -4918,7 +4931,7 @@
       <c r="A261" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B261" s="3">
+      <c r="B261" s="2">
         <v>1806</v>
       </c>
     </row>
@@ -4926,7 +4939,7 @@
       <c r="A262" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B262" s="3">
+      <c r="B262" s="2">
         <v>5531</v>
       </c>
     </row>
@@ -4934,7 +4947,7 @@
       <c r="A263" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B263" s="3">
+      <c r="B263" s="2">
         <v>8097</v>
       </c>
     </row>
@@ -4942,7 +4955,7 @@
       <c r="A264" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B264" s="3">
+      <c r="B264" s="2">
         <v>7205</v>
       </c>
     </row>
@@ -4950,7 +4963,7 @@
       <c r="A265" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B265" s="3">
+      <c r="B265" s="2">
         <v>3818</v>
       </c>
     </row>
@@ -4958,7 +4971,7 @@
       <c r="A266" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B266" s="3">
+      <c r="B266" s="2">
         <v>4312</v>
       </c>
     </row>
@@ -4966,7 +4979,7 @@
       <c r="A267" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B267" s="3">
+      <c r="B267" s="2">
         <v>3802</v>
       </c>
     </row>
@@ -4974,7 +4987,7 @@
       <c r="A268" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B268" s="3">
+      <c r="B268" s="2">
         <v>4827</v>
       </c>
     </row>
@@ -4982,7 +4995,7 @@
       <c r="A269" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B269" s="3">
+      <c r="B269" s="2">
         <v>3945</v>
       </c>
     </row>
@@ -4990,7 +5003,7 @@
       <c r="A270" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B270" s="3">
+      <c r="B270" s="2">
         <v>2461</v>
       </c>
     </row>
@@ -4998,7 +5011,7 @@
       <c r="A271" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B271" s="3">
+      <c r="B271" s="2">
         <v>13572</v>
       </c>
     </row>
@@ -5006,7 +5019,7 @@
       <c r="A272" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B272" s="3">
+      <c r="B272" s="2">
         <v>6099</v>
       </c>
     </row>
@@ -5014,7 +5027,7 @@
       <c r="A273" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B273" s="3">
+      <c r="B273" s="2">
         <v>6844</v>
       </c>
     </row>
@@ -5022,7 +5035,7 @@
       <c r="A274" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B274" s="3">
+      <c r="B274" s="2">
         <v>13098</v>
       </c>
     </row>
@@ -5030,7 +5043,7 @@
       <c r="A275" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B275" s="3">
+      <c r="B275" s="2">
         <v>17141</v>
       </c>
     </row>
@@ -5038,7 +5051,7 @@
       <c r="A276" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B276" s="3">
+      <c r="B276" s="2">
         <v>5419</v>
       </c>
     </row>
@@ -5046,7 +5059,7 @@
       <c r="A277" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B277" s="3">
+      <c r="B277" s="2">
         <v>4070</v>
       </c>
     </row>
@@ -5054,7 +5067,7 @@
       <c r="A278" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B278" s="3">
+      <c r="B278" s="2">
         <v>6239</v>
       </c>
     </row>
@@ -5062,7 +5075,7 @@
       <c r="A279" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B279" s="3">
+      <c r="B279" s="2">
         <v>12125</v>
       </c>
     </row>
@@ -5070,7 +5083,7 @@
       <c r="A280" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B280" s="3">
+      <c r="B280" s="2">
         <v>2306</v>
       </c>
     </row>
@@ -5078,7 +5091,7 @@
       <c r="A281" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B281" s="3">
+      <c r="B281" s="2">
         <v>3695</v>
       </c>
     </row>
@@ -5086,7 +5099,7 @@
       <c r="A282" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B282" s="3">
+      <c r="B282" s="2">
         <v>3272</v>
       </c>
     </row>
@@ -5094,7 +5107,7 @@
       <c r="A283" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B283" s="3">
+      <c r="B283" s="2">
         <v>5905</v>
       </c>
     </row>
@@ -5102,7 +5115,7 @@
       <c r="A284" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B284" s="3">
+      <c r="B284" s="2">
         <v>6327</v>
       </c>
     </row>
@@ -5110,7 +5123,7 @@
       <c r="A285" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B285" s="3">
+      <c r="B285" s="2">
         <v>2342</v>
       </c>
     </row>
@@ -5118,7 +5131,7 @@
       <c r="A286" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B286" s="3">
+      <c r="B286" s="2">
         <v>3645</v>
       </c>
     </row>
@@ -5126,7 +5139,7 @@
       <c r="A287" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B287" s="3">
+      <c r="B287" s="2">
         <v>412</v>
       </c>
     </row>
@@ -5134,7 +5147,7 @@
       <c r="A288" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B288" s="3">
+      <c r="B288" s="2">
         <v>237</v>
       </c>
     </row>
@@ -5142,7 +5155,7 @@
       <c r="A289" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B289" s="3">
+      <c r="B289" s="2">
         <v>1333</v>
       </c>
     </row>
@@ -5150,7 +5163,7 @@
       <c r="A290" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B290" s="3">
+      <c r="B290" s="2">
         <v>2840</v>
       </c>
     </row>
@@ -5158,7 +5171,7 @@
       <c r="A291" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B291" s="3">
+      <c r="B291" s="2">
         <v>1493</v>
       </c>
     </row>
@@ -5166,7 +5179,7 @@
       <c r="A292" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B292" s="3">
+      <c r="B292" s="2">
         <v>1108</v>
       </c>
     </row>
@@ -5174,7 +5187,7 @@
       <c r="A293" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B293" s="3">
+      <c r="B293" s="2">
         <v>2625</v>
       </c>
     </row>
@@ -5182,7 +5195,7 @@
       <c r="A294" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B294" s="3">
+      <c r="B294" s="2">
         <v>1994</v>
       </c>
     </row>
@@ -5190,7 +5203,7 @@
       <c r="A295" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B295" s="3">
+      <c r="B295" s="2">
         <v>862</v>
       </c>
     </row>
@@ -5198,7 +5211,7 @@
       <c r="A296" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B296" s="3">
+      <c r="B296" s="2">
         <v>1088</v>
       </c>
     </row>
@@ -5206,7 +5219,7 @@
       <c r="A297" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B297" s="3">
+      <c r="B297" s="2">
         <v>1338</v>
       </c>
     </row>
@@ -5214,7 +5227,7 @@
       <c r="A298" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B298" s="3">
+      <c r="B298" s="2">
         <v>475</v>
       </c>
     </row>
@@ -5222,7 +5235,7 @@
       <c r="A299" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B299" s="3">
+      <c r="B299" s="2">
         <v>382</v>
       </c>
     </row>
@@ -5230,7 +5243,7 @@
       <c r="A300" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B300" s="3">
+      <c r="B300" s="2">
         <v>386</v>
       </c>
     </row>
@@ -5238,7 +5251,7 @@
       <c r="A301" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B301" s="3">
+      <c r="B301" s="2">
         <v>143</v>
       </c>
     </row>
@@ -5246,7 +5259,7 @@
       <c r="A302" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B302" s="3">
+      <c r="B302" s="2">
         <v>260</v>
       </c>
     </row>
@@ -5254,7 +5267,7 @@
       <c r="A303" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B303" s="3">
+      <c r="B303" s="2">
         <v>288</v>
       </c>
     </row>
@@ -5262,7 +5275,7 @@
       <c r="A304" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B304" s="3">
+      <c r="B304" s="2">
         <v>826</v>
       </c>
     </row>
@@ -5270,7 +5283,7 @@
       <c r="A305" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B305" s="3">
+      <c r="B305" s="2">
         <v>2259</v>
       </c>
     </row>
@@ -5278,7 +5291,7 @@
       <c r="A306" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B306" s="3">
+      <c r="B306" s="2">
         <v>2301</v>
       </c>
     </row>
@@ -5286,7 +5299,7 @@
       <c r="A307" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B307" s="3">
+      <c r="B307" s="2">
         <v>2301</v>
       </c>
     </row>
@@ -5294,7 +5307,7 @@
       <c r="A308" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="B308" s="3">
+      <c r="B308" s="2">
         <v>9123</v>
       </c>
     </row>
@@ -5302,7 +5315,7 @@
       <c r="A309" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B309" s="3">
+      <c r="B309" s="2">
         <v>12943</v>
       </c>
     </row>
@@ -5310,7 +5323,7 @@
       <c r="A310" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B310" s="3">
+      <c r="B310" s="2">
         <v>5482</v>
       </c>
     </row>
@@ -5318,7 +5331,7 @@
       <c r="A311" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B311" s="3">
+      <c r="B311" s="2">
         <v>6020</v>
       </c>
     </row>
@@ -5326,7 +5339,7 @@
       <c r="A312" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B312" s="3">
+      <c r="B312" s="2">
         <v>6391</v>
       </c>
     </row>
@@ -5334,7 +5347,7 @@
       <c r="A313" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B313" s="3">
+      <c r="B313" s="2">
         <v>6042</v>
       </c>
     </row>
@@ -5342,7 +5355,7 @@
       <c r="A314" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B314" s="3">
+      <c r="B314" s="2">
         <v>5376</v>
       </c>
     </row>
@@ -5350,7 +5363,7 @@
       <c r="A315" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="B315" s="3">
+      <c r="B315" s="2">
         <v>380</v>
       </c>
     </row>
@@ -5358,7 +5371,7 @@
       <c r="A316" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B316" s="3">
+      <c r="B316" s="2">
         <v>155</v>
       </c>
     </row>
@@ -5366,7 +5379,7 @@
       <c r="A317" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B317" s="3">
+      <c r="B317" s="2">
         <v>213</v>
       </c>
     </row>
@@ -5374,7 +5387,7 @@
       <c r="A318" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B318" s="3">
+      <c r="B318" s="2">
         <v>5</v>
       </c>
     </row>
@@ -5382,7 +5395,7 @@
       <c r="A319" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B319" s="3">
+      <c r="B319" s="2">
         <v>103</v>
       </c>
     </row>
@@ -5390,7 +5403,7 @@
       <c r="A320" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B320" s="3">
+      <c r="B320" s="2">
         <v>109</v>
       </c>
     </row>
@@ -5398,7 +5411,7 @@
       <c r="A321" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B321" s="3">
+      <c r="B321" s="2">
         <v>255</v>
       </c>
     </row>
@@ -5406,7 +5419,7 @@
       <c r="A322" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B322" s="3">
+      <c r="B322" s="2">
         <v>265</v>
       </c>
     </row>
@@ -5414,7 +5427,7 @@
       <c r="A323" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B323" s="3">
+      <c r="B323" s="2">
         <v>470</v>
       </c>
     </row>
@@ -5422,7 +5435,7 @@
       <c r="A324" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B324" s="3">
+      <c r="B324" s="2">
         <v>1232</v>
       </c>
     </row>
@@ -5430,7 +5443,7 @@
       <c r="A325" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B325" s="3">
+      <c r="B325" s="2">
         <v>2451</v>
       </c>
     </row>
@@ -5438,7 +5451,7 @@
       <c r="A326" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B326" s="3">
+      <c r="B326" s="2">
         <v>7856</v>
       </c>
     </row>
@@ -5446,7 +5459,7 @@
       <c r="A327" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B327" s="3">
+      <c r="B327" s="2">
         <v>6405</v>
       </c>
     </row>
@@ -5454,7 +5467,7 @@
       <c r="A328" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B328" s="3">
+      <c r="B328" s="2">
         <v>4474</v>
       </c>
     </row>
@@ -5462,7 +5475,7 @@
       <c r="A329" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B329" s="3">
+      <c r="B329" s="2">
         <v>4273</v>
       </c>
     </row>
@@ -5470,7 +5483,7 @@
       <c r="A330" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B330" s="3">
+      <c r="B330" s="2">
         <v>1140</v>
       </c>
     </row>
@@ -5478,7 +5491,7 @@
       <c r="A331" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B331" s="3">
+      <c r="B331" s="2">
         <v>6957</v>
       </c>
     </row>
@@ -5486,7 +5499,7 @@
       <c r="A332" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="B332" s="3">
+      <c r="B332" s="2">
         <v>5751</v>
       </c>
     </row>
@@ -5494,7 +5507,7 @@
       <c r="A333" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B333" s="3">
+      <c r="B333" s="2">
         <v>6377</v>
       </c>
     </row>
@@ -5502,7 +5515,7 @@
       <c r="A334" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="B334" s="3">
+      <c r="B334" s="2">
         <v>13370</v>
       </c>
     </row>
@@ -5510,7 +5523,7 @@
       <c r="A335" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="B335" s="3">
+      <c r="B335" s="2">
         <v>11584</v>
       </c>
     </row>
@@ -5518,7 +5531,7 @@
       <c r="A336" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="B336" s="3">
+      <c r="B336" s="2">
         <v>21211</v>
       </c>
     </row>
@@ -5526,7 +5539,7 @@
       <c r="A337" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B337" s="3">
+      <c r="B337" s="2">
         <v>13818</v>
       </c>
     </row>
@@ -5534,7 +5547,7 @@
       <c r="A338" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B338" s="3">
+      <c r="B338" s="2">
         <v>14524</v>
       </c>
     </row>
@@ -5542,7 +5555,7 @@
       <c r="A339" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B339" s="3">
+      <c r="B339" s="2">
         <v>15306</v>
       </c>
     </row>
@@ -5550,7 +5563,7 @@
       <c r="A340" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="B340" s="3">
+      <c r="B340" s="2">
         <v>15990</v>
       </c>
     </row>
@@ -5558,7 +5571,7 @@
       <c r="A341" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B341" s="3">
+      <c r="B341" s="2">
         <v>7695</v>
       </c>
     </row>
@@ -5566,7 +5579,7 @@
       <c r="A342" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B342" s="3">
+      <c r="B342" s="2">
         <v>12114</v>
       </c>
     </row>
@@ -5574,7 +5587,7 @@
       <c r="A343" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="B343" s="3">
+      <c r="B343" s="2">
         <v>8158</v>
       </c>
     </row>
@@ -5582,7 +5595,7 @@
       <c r="A344" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="B344" s="3">
+      <c r="B344" s="2">
         <v>4382</v>
       </c>
     </row>
@@ -5590,7 +5603,7 @@
       <c r="A345" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B345" s="3">
+      <c r="B345" s="2">
         <v>2612</v>
       </c>
     </row>
@@ -5598,7 +5611,7 @@
       <c r="A346" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B346" s="3">
+      <c r="B346" s="2">
         <v>4217</v>
       </c>
     </row>
@@ -5606,7 +5619,7 @@
       <c r="A347" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B347" s="3">
+      <c r="B347" s="2">
         <v>3551</v>
       </c>
     </row>
@@ -5614,7 +5627,7 @@
       <c r="A348" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B348" s="3">
+      <c r="B348" s="2">
         <v>6366</v>
       </c>
     </row>
@@ -5622,7 +5635,7 @@
       <c r="A349" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B349" s="3">
+      <c r="B349" s="2">
         <v>2456</v>
       </c>
     </row>
@@ -5630,7 +5643,7 @@
       <c r="A350" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B350" s="3">
+      <c r="B350" s="2">
         <v>4225</v>
       </c>
     </row>
@@ -5638,7 +5651,7 @@
       <c r="A351" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B351" s="3">
+      <c r="B351" s="2">
         <v>10270</v>
       </c>
     </row>
@@ -5646,7 +5659,7 @@
       <c r="A352" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B352" s="3">
+      <c r="B352" s="2">
         <v>10009</v>
       </c>
     </row>
@@ -5654,7 +5667,7 @@
       <c r="A353" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B353" s="3">
+      <c r="B353" s="2">
         <v>8686</v>
       </c>
     </row>
@@ -5662,7 +5675,7 @@
       <c r="A354" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B354" s="3">
+      <c r="B354" s="2">
         <v>7008</v>
       </c>
     </row>
@@ -5670,7 +5683,7 @@
       <c r="A355" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B355" s="3">
+      <c r="B355" s="2">
         <v>7902</v>
       </c>
     </row>
@@ -5678,7 +5691,7 @@
       <c r="A356" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B356" s="3">
+      <c r="B356" s="2">
         <v>10594</v>
       </c>
     </row>
@@ -5686,7 +5699,7 @@
       <c r="A357" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B357" s="3">
+      <c r="B357" s="2">
         <v>4829</v>
       </c>
     </row>
@@ -5694,7 +5707,7 @@
       <c r="A358" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B358" s="3">
+      <c r="B358" s="2">
         <v>10036</v>
       </c>
     </row>
@@ -5702,7 +5715,7 @@
       <c r="A359" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B359" s="3">
+      <c r="B359" s="2">
         <v>15633</v>
       </c>
     </row>
@@ -5710,7 +5723,7 @@
       <c r="A360" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="B360" s="3">
+      <c r="B360" s="2">
         <v>18705</v>
       </c>
     </row>
@@ -5718,7 +5731,7 @@
       <c r="A361" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B361" s="3">
+      <c r="B361" s="2">
         <v>10506</v>
       </c>
     </row>
@@ -5726,7 +5739,7 @@
       <c r="A362" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B362" s="3">
+      <c r="B362" s="2">
         <v>11228</v>
       </c>
     </row>
@@ -5734,7 +5747,7 @@
       <c r="A363" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="B363" s="3">
+      <c r="B363" s="2">
         <v>10986</v>
       </c>
     </row>
@@ -5742,7 +5755,7 @@
       <c r="A364" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B364" s="3">
+      <c r="B364" s="2">
         <v>9486</v>
       </c>
     </row>
@@ -5750,7 +5763,7 @@
       <c r="A365" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="B365" s="3">
+      <c r="B365" s="2">
         <v>9337</v>
       </c>
     </row>
@@ -5758,7 +5771,7 @@
       <c r="A366" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="B366" s="3">
+      <c r="B366" s="2">
         <v>7664</v>
       </c>
     </row>
@@ -5766,7 +5779,7 @@
       <c r="A367" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B367" s="3">
+      <c r="B367" s="2">
         <v>7609</v>
       </c>
     </row>
@@ -5774,7 +5787,7 @@
       <c r="A368" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B368" s="3">
+      <c r="B368" s="2">
         <v>6159</v>
       </c>
     </row>
@@ -5782,7 +5795,7 @@
       <c r="A369" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="B369" s="3">
+      <c r="B369" s="2">
         <v>6930</v>
       </c>
     </row>
@@ -5790,7 +5803,7 @@
       <c r="A370" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="B370" s="3">
+      <c r="B370" s="2">
         <v>7533</v>
       </c>
     </row>
@@ -5798,7 +5811,7 @@
       <c r="A371" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="B371" s="3">
+      <c r="B371" s="2">
         <v>6201</v>
       </c>
     </row>
@@ -5806,7 +5819,7 @@
       <c r="A372" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B372" s="3">
+      <c r="B372" s="2">
         <v>9289</v>
       </c>
     </row>
@@ -5814,7 +5827,7 @@
       <c r="A373" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="B373" s="3">
+      <c r="B373" s="2">
         <v>13634</v>
       </c>
     </row>
@@ -5822,7 +5835,7 @@
       <c r="A374" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B374" s="3">
+      <c r="B374" s="2">
         <v>10694</v>
       </c>
     </row>
@@ -5830,7 +5843,7 @@
       <c r="A375" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="B375" s="3">
+      <c r="B375" s="2">
         <v>12060</v>
       </c>
     </row>
@@ -5838,7 +5851,7 @@
       <c r="A376" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B376" s="3">
+      <c r="B376" s="2">
         <v>12754</v>
       </c>
     </row>
@@ -5846,7 +5859,7 @@
       <c r="A377" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="B377" s="3">
+      <c r="B377" s="2">
         <v>8321</v>
       </c>
     </row>
@@ -5854,7 +5867,7 @@
       <c r="A378" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="B378" s="3">
+      <c r="B378" s="2">
         <v>3590</v>
       </c>
     </row>
@@ -5862,7 +5875,7 @@
       <c r="A379" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="B379" s="3">
+      <c r="B379" s="2">
         <v>3847</v>
       </c>
     </row>
@@ -5870,7 +5883,7 @@
       <c r="A380" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B380" s="3">
+      <c r="B380" s="2">
         <v>3375</v>
       </c>
     </row>
@@ -5878,7 +5891,7 @@
       <c r="A381" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="B381" s="3">
+      <c r="B381" s="2">
         <v>2684</v>
       </c>
     </row>
@@ -5886,7 +5899,7 @@
       <c r="A382" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="B382" s="3">
+      <c r="B382" s="2">
         <v>5086</v>
       </c>
     </row>
@@ -5894,7 +5907,7 @@
       <c r="A383" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="B383" s="3">
+      <c r="B383" s="2">
         <v>3648</v>
       </c>
     </row>
@@ -5902,7 +5915,7 @@
       <c r="A384" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B384" s="3">
+      <c r="B384" s="2">
         <v>4446</v>
       </c>
     </row>
@@ -5910,7 +5923,7 @@
       <c r="A385" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B385" s="3">
+      <c r="B385" s="2">
         <v>5228</v>
       </c>
     </row>
@@ -5918,7 +5931,7 @@
       <c r="A386" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="B386" s="3">
+      <c r="B386" s="2">
         <v>4084</v>
       </c>
     </row>
@@ -5926,7 +5939,7 @@
       <c r="A387" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B387" s="3">
+      <c r="B387" s="2">
         <v>3229</v>
       </c>
     </row>
@@ -5934,7 +5947,7 @@
       <c r="A388" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B388" s="3">
+      <c r="B388" s="2">
         <v>2817</v>
       </c>
     </row>
@@ -5942,7 +5955,7 @@
       <c r="A389" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="B389" s="3">
+      <c r="B389" s="2">
         <v>1727</v>
       </c>
     </row>
@@ -5950,7 +5963,7 @@
       <c r="A390" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="B390" s="3">
+      <c r="B390" s="2">
         <v>4477</v>
       </c>
     </row>
@@ -5958,7 +5971,7 @@
       <c r="A391" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="B391" s="3">
+      <c r="B391" s="2">
         <v>6643</v>
       </c>
     </row>
@@ -5966,7 +5979,7 @@
       <c r="A392" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="B392" s="3">
+      <c r="B392" s="2">
         <v>12168</v>
       </c>
     </row>
@@ -5974,7 +5987,7 @@
       <c r="A393" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="B393" s="3">
+      <c r="B393" s="2">
         <v>8596</v>
       </c>
     </row>
@@ -5982,7 +5995,7 @@
       <c r="A394" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="B394" s="3">
+      <c r="B394" s="2">
         <v>7764</v>
       </c>
     </row>
@@ -5990,7 +6003,7 @@
       <c r="A395" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B395" s="3">
+      <c r="B395" s="2">
         <v>8733</v>
       </c>
     </row>
@@ -5998,7 +6011,7 @@
       <c r="A396" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B396" s="3">
+      <c r="B396" s="2">
         <v>10772</v>
       </c>
     </row>
@@ -6006,7 +6019,7 @@
       <c r="A397" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="B397" s="3">
+      <c r="B397" s="2">
         <v>11846</v>
       </c>
     </row>
@@ -6014,7 +6027,7 @@
       <c r="A398" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="B398" s="3">
+      <c r="B398" s="2">
         <v>12516</v>
       </c>
     </row>
@@ -6022,7 +6035,7 @@
       <c r="A399" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B399" s="3">
+      <c r="B399" s="2">
         <v>12143</v>
       </c>
     </row>
@@ -6030,7 +6043,7 @@
       <c r="A400" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="B400" s="3">
+      <c r="B400" s="2">
         <v>12260</v>
       </c>
     </row>
@@ -6038,7 +6051,7 @@
       <c r="A401" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="B401" s="3">
+      <c r="B401" s="2">
         <v>11298</v>
       </c>
     </row>
@@ -6046,7 +6059,7 @@
       <c r="A402" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B402" s="3">
+      <c r="B402" s="2">
         <v>9448</v>
       </c>
     </row>
@@ -6054,7 +6067,7 @@
       <c r="A403" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="B403" s="3">
+      <c r="B403" s="2">
         <v>10280</v>
       </c>
     </row>
@@ -6062,7 +6075,7 @@
       <c r="A404" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B404" s="3">
+      <c r="B404" s="2">
         <v>9491</v>
       </c>
     </row>
@@ -6070,7 +6083,7 @@
       <c r="A405" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="B405" s="3">
+      <c r="B405" s="2">
         <v>11435</v>
       </c>
     </row>
@@ -6078,7 +6091,7 @@
       <c r="A406" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="B406" s="3">
+      <c r="B406" s="2">
         <v>9815</v>
       </c>
     </row>
@@ -6086,7 +6099,7 @@
       <c r="A407" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="B407" s="3">
+      <c r="B407" s="2">
         <v>19463</v>
       </c>
     </row>
@@ -6094,7 +6107,7 @@
       <c r="A408" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="B408" s="3">
+      <c r="B408" s="2">
         <v>14054</v>
       </c>
     </row>
@@ -6102,7 +6115,7 @@
       <c r="A409" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="B409" s="3">
+      <c r="B409" s="2">
         <v>7345</v>
       </c>
     </row>
@@ -6110,7 +6123,7 @@
       <c r="A410" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="B410" s="3">
+      <c r="B410" s="2">
         <v>4877</v>
       </c>
     </row>
@@ -6118,7 +6131,7 @@
       <c r="A411" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="B411" s="3">
+      <c r="B411" s="2">
         <v>6010</v>
       </c>
     </row>
@@ -6126,7 +6139,7 @@
       <c r="A412" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B412" s="3">
+      <c r="B412" s="2">
         <v>5204</v>
       </c>
     </row>
@@ -6134,7 +6147,7 @@
       <c r="A413" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="B413" s="3">
+      <c r="B413" s="2">
         <v>5984</v>
       </c>
     </row>
@@ -6142,7 +6155,7 @@
       <c r="A414" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B414" s="3">
+      <c r="B414" s="2">
         <v>8959</v>
       </c>
     </row>
@@ -6150,7 +6163,7 @@
       <c r="A415" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B415" s="3">
+      <c r="B415" s="2">
         <v>5943</v>
       </c>
     </row>
@@ -6158,7 +6171,7 @@
       <c r="A416" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="B416" s="3">
+      <c r="B416" s="2">
         <v>8833</v>
       </c>
     </row>
@@ -6166,7 +6179,7 @@
       <c r="A417" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B417" s="3">
+      <c r="B417" s="2">
         <v>8286</v>
       </c>
     </row>
@@ -6174,7 +6187,7 @@
       <c r="A418" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="B418" s="3">
+      <c r="B418" s="2">
         <v>9741</v>
       </c>
     </row>
@@ -6182,7 +6195,7 @@
       <c r="A419" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="B419" s="3">
+      <c r="B419" s="2">
         <v>8325</v>
       </c>
     </row>
@@ -6190,7 +6203,7 @@
       <c r="A420" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B420" s="3">
+      <c r="B420" s="2">
         <v>8384</v>
       </c>
     </row>
@@ -6198,7 +6211,7 @@
       <c r="A421" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="B421" s="3">
+      <c r="B421" s="2">
         <v>9451</v>
       </c>
     </row>
@@ -6206,7 +6219,7 @@
       <c r="A422" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="B422" s="3">
+      <c r="B422" s="2">
         <v>9462</v>
       </c>
     </row>
@@ -6214,7 +6227,7 @@
       <c r="A423" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="B423" s="3">
+      <c r="B423" s="2">
         <v>11452</v>
       </c>
     </row>
@@ -6222,7 +6235,7 @@
       <c r="A424" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="B424" s="3">
+      <c r="B424" s="2">
         <v>10743</v>
       </c>
     </row>
@@ -6230,7 +6243,7 @@
       <c r="A425" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="B425" s="3">
+      <c r="B425" s="2">
         <v>12611</v>
       </c>
     </row>
@@ -6238,7 +6251,7 @@
       <c r="A426" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B426" s="3">
+      <c r="B426" s="2">
         <v>11432</v>
       </c>
     </row>
@@ -6246,7 +6259,7 @@
       <c r="A427" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="B427" s="3">
+      <c r="B427" s="2">
         <v>9154</v>
       </c>
     </row>
@@ -6254,7 +6267,7 @@
       <c r="A428" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="B428" s="3">
+      <c r="B428" s="2">
         <v>23576</v>
       </c>
     </row>
@@ -6262,7 +6275,7 @@
       <c r="A429" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="B429" s="3">
+      <c r="B429" s="2">
         <v>6893</v>
       </c>
     </row>
@@ -6270,7 +6283,7 @@
       <c r="A430" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B430" s="3">
+      <c r="B430" s="2">
         <v>6393</v>
       </c>
     </row>
@@ -6278,7 +6291,7 @@
       <c r="A431" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="B431" s="3">
+      <c r="B431" s="2">
         <v>9902</v>
       </c>
     </row>
@@ -6286,7 +6299,7 @@
       <c r="A432" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="B432" s="3">
+      <c r="B432" s="2">
         <v>9029</v>
       </c>
     </row>
@@ -6294,7 +6307,7 @@
       <c r="A433" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="B433" s="3">
+      <c r="B433" s="2">
         <v>4974</v>
       </c>
     </row>
@@ -6302,7 +6315,7 @@
       <c r="A434" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="B434" s="3">
+      <c r="B434" s="2">
         <v>5496</v>
       </c>
     </row>
@@ -6310,7 +6323,7 @@
       <c r="A435" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B435" s="3">
+      <c r="B435" s="2">
         <v>6914</v>
       </c>
     </row>
@@ -6318,7 +6331,7 @@
       <c r="A436" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B436" s="3">
+      <c r="B436" s="2">
         <v>9635</v>
       </c>
     </row>
@@ -6326,7 +6339,7 @@
       <c r="A437" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="B437" s="3">
+      <c r="B437" s="2">
         <v>25456</v>
       </c>
     </row>
@@ -6334,7 +6347,7 @@
       <c r="A438" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B438" s="3">
+      <c r="B438" s="2">
         <v>13359</v>
       </c>
     </row>
@@ -6342,7 +6355,7 @@
       <c r="A439" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="B439" s="3">
+      <c r="B439" s="2">
         <v>6686</v>
       </c>
     </row>
@@ -6350,7 +6363,7 @@
       <c r="A440" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B440" s="3">
+      <c r="B440" s="2">
         <v>5275</v>
       </c>
     </row>
@@ -6358,7 +6371,7 @@
       <c r="A441" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B441" s="3">
+      <c r="B441" s="2">
         <v>4620</v>
       </c>
     </row>
@@ -6366,7 +6379,7 @@
       <c r="A442" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B442" s="3">
+      <c r="B442" s="2">
         <v>7197</v>
       </c>
     </row>
@@ -6374,7 +6387,7 @@
       <c r="A443" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="B443" s="3">
+      <c r="B443" s="2">
         <v>5493</v>
       </c>
     </row>
@@ -6382,7 +6395,7 @@
       <c r="A444" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B444" s="3">
+      <c r="B444" s="2">
         <v>6077</v>
       </c>
     </row>
@@ -6390,7 +6403,7 @@
       <c r="A445" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B445" s="3">
+      <c r="B445" s="2">
         <v>6308</v>
       </c>
     </row>
@@ -6398,7 +6411,7 @@
       <c r="A446" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="B446" s="3">
+      <c r="B446" s="2">
         <v>8276</v>
       </c>
     </row>
@@ -6406,7 +6419,7 @@
       <c r="A447" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="B447" s="3">
+      <c r="B447" s="2">
         <v>8631</v>
       </c>
     </row>
@@ -6414,7 +6427,7 @@
       <c r="A448" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="B448" s="3">
+      <c r="B448" s="2">
         <v>5726</v>
       </c>
     </row>
@@ -6422,7 +6435,7 @@
       <c r="A449" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="B449" s="3">
+      <c r="B449" s="2">
         <v>7822</v>
       </c>
     </row>
@@ -6430,7 +6443,7 @@
       <c r="A450" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B450" s="3">
+      <c r="B450" s="2">
         <v>13916</v>
       </c>
     </row>
@@ -6438,7 +6451,7 @@
       <c r="A451" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="B451" s="3">
+      <c r="B451" s="2">
         <v>10212</v>
       </c>
     </row>
@@ -6446,7 +6459,7 @@
       <c r="A452" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="B452" s="3">
+      <c r="B452" s="2">
         <v>10428</v>
       </c>
     </row>
@@ -6454,7 +6467,7 @@
       <c r="A453" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B453" s="3">
+      <c r="B453" s="2">
         <v>6859</v>
       </c>
     </row>
@@ -6462,7 +6475,7 @@
       <c r="A454" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="B454" s="3">
+      <c r="B454" s="2">
         <v>12051</v>
       </c>
     </row>
@@ -6470,7 +6483,7 @@
       <c r="A455" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="B455" s="3">
+      <c r="B455" s="2">
         <v>5893</v>
       </c>
     </row>
@@ -6478,7 +6491,7 @@
       <c r="A456" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="B456" s="3">
+      <c r="B456" s="2">
         <v>7124</v>
       </c>
     </row>
@@ -6486,7 +6499,7 @@
       <c r="A457" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="B457" s="3">
+      <c r="B457" s="2">
         <v>15508</v>
       </c>
     </row>
@@ -6494,7 +6507,7 @@
       <c r="A458" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="B458" s="3">
+      <c r="B458" s="2">
         <v>11437</v>
       </c>
     </row>
@@ -6502,7 +6515,7 @@
       <c r="A459" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B459" s="3">
+      <c r="B459" s="2">
         <v>5246</v>
       </c>
     </row>
@@ -6510,7 +6523,7 @@
       <c r="A460" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="B460" s="3">
+      <c r="B460" s="2">
         <v>9835</v>
       </c>
     </row>
@@ -6518,7 +6531,7 @@
       <c r="A461" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="B461" s="3">
+      <c r="B461" s="2">
         <v>11840</v>
       </c>
     </row>
@@ -6526,7 +6539,7 @@
       <c r="A462" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="B462" s="3">
+      <c r="B462" s="2">
         <v>6080</v>
       </c>
     </row>
@@ -6534,7 +6547,7 @@
       <c r="A463" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="B463" s="3">
+      <c r="B463" s="2">
         <v>6374</v>
       </c>
     </row>
@@ -6542,7 +6555,7 @@
       <c r="A464" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="B464" s="3">
+      <c r="B464" s="2">
         <v>5015</v>
       </c>
     </row>
@@ -6550,7 +6563,7 @@
       <c r="A465" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B465" s="3">
+      <c r="B465" s="2">
         <v>4185</v>
       </c>
     </row>
@@ -6558,7 +6571,7 @@
       <c r="A466" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="B466" s="3">
+      <c r="B466" s="2">
         <v>7626</v>
       </c>
     </row>
@@ -6566,7 +6579,7 @@
       <c r="A467" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="B467" s="3">
+      <c r="B467" s="2">
         <v>2414</v>
       </c>
     </row>
@@ -6574,7 +6587,7 @@
       <c r="A468" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="B468" s="3">
+      <c r="B468" s="2">
         <v>2632</v>
       </c>
     </row>
@@ -6582,7 +6595,7 @@
       <c r="A469" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B469" s="3">
+      <c r="B469" s="2">
         <v>3848</v>
       </c>
     </row>
@@ -6590,7 +6603,7 @@
       <c r="A470" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="B470" s="3">
+      <c r="B470" s="2">
         <v>3307</v>
       </c>
     </row>
@@ -6598,7 +6611,7 @@
       <c r="A471" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B471" s="3">
+      <c r="B471" s="2">
         <v>8577</v>
       </c>
     </row>
@@ -6606,7 +6619,7 @@
       <c r="A472" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="B472" s="3">
+      <c r="B472" s="2">
         <v>15416</v>
       </c>
     </row>
@@ -6614,7 +6627,7 @@
       <c r="A473" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="B473" s="3">
+      <c r="B473" s="2">
         <v>5973</v>
       </c>
     </row>
@@ -6622,7 +6635,7 @@
       <c r="A474" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="B474" s="3">
+      <c r="B474" s="2">
         <v>4756</v>
       </c>
     </row>
@@ -6630,7 +6643,7 @@
       <c r="A475" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="B475" s="3">
+      <c r="B475" s="2">
         <v>4756</v>
       </c>
     </row>
@@ -6638,7 +6651,7 @@
       <c r="A476" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="B476" s="3">
+      <c r="B476" s="2">
         <v>12257</v>
       </c>
     </row>
@@ -6646,7 +6659,7 @@
       <c r="A477" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="B477" s="3">
+      <c r="B477" s="2">
         <v>7830</v>
       </c>
     </row>
@@ -6654,7 +6667,7 @@
       <c r="A478" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="B478" s="3">
+      <c r="B478" s="2">
         <v>6265</v>
       </c>
     </row>
@@ -6662,7 +6675,7 @@
       <c r="A479" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="B479" s="3">
+      <c r="B479" s="2">
         <v>7546</v>
       </c>
     </row>
@@ -6670,7 +6683,7 @@
       <c r="A480" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="B480" s="3">
+      <c r="B480" s="2">
         <v>5675</v>
       </c>
     </row>
@@ -6678,7 +6691,7 @@
       <c r="A481" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="B481" s="3">
+      <c r="B481" s="2">
         <v>9025</v>
       </c>
     </row>
@@ -6686,7 +6699,7 @@
       <c r="A482" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="B482" s="3">
+      <c r="B482" s="2">
         <v>6125</v>
       </c>
     </row>
@@ -6694,7 +6707,7 @@
       <c r="A483" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="B483" s="3">
+      <c r="B483" s="2">
         <v>3849</v>
       </c>
     </row>
@@ -6702,7 +6715,7 @@
       <c r="A484" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="B484" s="3">
+      <c r="B484" s="2">
         <v>3189</v>
       </c>
     </row>
@@ -6710,7 +6723,7 @@
       <c r="A485" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="B485" s="3">
+      <c r="B485" s="2">
         <v>3975</v>
       </c>
     </row>
@@ -6718,7 +6731,7 @@
       <c r="A486" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="B486" s="3">
+      <c r="B486" s="2">
         <v>3938</v>
       </c>
     </row>
@@ -6726,7 +6739,7 @@
       <c r="A487" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B487" s="3">
+      <c r="B487" s="2">
         <v>4099</v>
       </c>
     </row>
@@ -6734,7 +6747,7 @@
       <c r="A488" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="B488" s="3">
+      <c r="B488" s="2">
         <v>3295</v>
       </c>
     </row>
@@ -6742,7 +6755,7 @@
       <c r="A489" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="B489" s="3">
+      <c r="B489" s="2">
         <v>4948</v>
       </c>
     </row>
@@ -6750,7 +6763,7 @@
       <c r="A490" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="B490" s="3">
+      <c r="B490" s="2">
         <v>4599</v>
       </c>
     </row>
@@ -6758,7 +6771,7 @@
       <c r="A491" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="B491" s="3">
+      <c r="B491" s="2">
         <v>4133</v>
       </c>
     </row>
@@ -6766,7 +6779,7 @@
       <c r="A492" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="B492" s="3">
+      <c r="B492" s="2">
         <v>3297</v>
       </c>
     </row>
@@ -6774,7 +6787,7 @@
       <c r="A493" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="B493" s="3">
+      <c r="B493" s="2">
         <v>3397</v>
       </c>
     </row>
@@ -6782,7 +6795,7 @@
       <c r="A494" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="B494" s="3">
+      <c r="B494" s="2">
         <v>2762</v>
       </c>
     </row>
@@ -6790,7 +6803,7 @@
       <c r="A495" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="B495" s="3">
+      <c r="B495" s="2">
         <v>1806</v>
       </c>
     </row>
@@ -6798,7 +6811,7 @@
       <c r="A496" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="B496" s="3">
+      <c r="B496" s="2">
         <v>1357</v>
       </c>
     </row>
@@ -6806,7 +6819,7 @@
       <c r="A497" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="B497" s="3">
+      <c r="B497" s="2">
         <v>1802</v>
       </c>
     </row>
@@ -6814,7 +6827,7 @@
       <c r="A498" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="B498" s="3">
+      <c r="B498" s="2">
         <v>4553</v>
       </c>
     </row>
@@ -6822,7 +6835,7 @@
       <c r="A499" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="B499" s="3">
+      <c r="B499" s="2">
         <v>5286</v>
       </c>
     </row>
@@ -6830,7 +6843,7 @@
       <c r="A500" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="B500" s="3">
+      <c r="B500" s="2">
         <v>3780</v>
       </c>
     </row>
@@ -6838,7 +6851,7 @@
       <c r="A501" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="B501" s="3">
+      <c r="B501" s="2">
         <v>2441</v>
       </c>
     </row>
@@ -6846,7 +6859,7 @@
       <c r="A502" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="B502" s="3">
+      <c r="B502" s="2">
         <v>5466</v>
       </c>
     </row>
@@ -6854,7 +6867,7 @@
       <c r="A503" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="B503" s="3">
+      <c r="B503" s="2">
         <v>6574</v>
       </c>
     </row>
@@ -6862,7 +6875,7 @@
       <c r="A504" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="B504" s="3">
+      <c r="B504" s="2">
         <v>1142</v>
       </c>
     </row>
@@ -6870,7 +6883,7 @@
       <c r="A505" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="B505" s="3">
+      <c r="B505" s="2">
         <v>3755</v>
       </c>
     </row>
@@ -6878,7 +6891,7 @@
       <c r="A506" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="B506" s="3">
+      <c r="B506" s="2">
         <v>4184</v>
       </c>
     </row>
@@ -6886,7 +6899,7 @@
       <c r="A507" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="B507" s="3">
+      <c r="B507" s="2">
         <v>6134</v>
       </c>
     </row>
@@ -6894,7 +6907,7 @@
       <c r="A508" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="B508" s="3">
+      <c r="B508" s="2">
         <v>6421</v>
       </c>
     </row>
@@ -6902,7 +6915,7 @@
       <c r="A509" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="B509" s="3">
+      <c r="B509" s="2">
         <v>6488</v>
       </c>
     </row>
@@ -6910,7 +6923,7 @@
       <c r="A510" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="B510" s="3">
+      <c r="B510" s="2">
         <v>4149</v>
       </c>
     </row>
@@ -6918,7 +6931,7 @@
       <c r="A511" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="B511" s="3">
+      <c r="B511" s="2">
         <v>6095</v>
       </c>
     </row>
@@ -6926,7 +6939,7 @@
       <c r="A512" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="B512" s="3">
+      <c r="B512" s="2">
         <v>11397</v>
       </c>
     </row>
@@ -6934,7 +6947,7 @@
       <c r="A513" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="B513" s="3">
+      <c r="B513" s="2">
         <v>7560</v>
       </c>
     </row>
@@ -6942,7 +6955,7 @@
       <c r="A514" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B514" s="3">
+      <c r="B514" s="2">
         <v>5299</v>
       </c>
     </row>
@@ -6950,7 +6963,7 @@
       <c r="A515" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="B515" s="3">
+      <c r="B515" s="2">
         <v>22628</v>
       </c>
     </row>
@@ -6958,7 +6971,7 @@
       <c r="A516" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="B516" s="3">
+      <c r="B516" s="2">
         <v>14699</v>
       </c>
     </row>
@@ -6966,7 +6979,7 @@
       <c r="A517" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="B517" s="3">
+      <c r="B517" s="2">
         <v>10254</v>
       </c>
     </row>
@@ -6974,7 +6987,7 @@
       <c r="A518" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="B518" s="3">
+      <c r="B518" s="2">
         <v>13287</v>
       </c>
     </row>
@@ -6982,7 +6995,7 @@
       <c r="A519" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="B519" s="3">
+      <c r="B519" s="2">
         <v>6685</v>
       </c>
     </row>
@@ -6990,7 +7003,7 @@
       <c r="A520" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="B520" s="3">
+      <c r="B520" s="2">
         <v>8382</v>
       </c>
     </row>
@@ -6998,7 +7011,7 @@
       <c r="A521" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="B521" s="3">
+      <c r="B521" s="2">
         <v>14326</v>
       </c>
     </row>
@@ -7006,7 +7019,7 @@
       <c r="A522" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="B522" s="3">
+      <c r="B522" s="2">
         <v>4771</v>
       </c>
     </row>
@@ -7014,7 +7027,7 @@
       <c r="A523" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="B523" s="3">
+      <c r="B523" s="2">
         <v>2284</v>
       </c>
     </row>
@@ -7022,7 +7035,7 @@
       <c r="A524" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="B524" s="3">
+      <c r="B524" s="2">
         <v>4821</v>
       </c>
     </row>
@@ -7030,7 +7043,7 @@
       <c r="A525" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="B525" s="3">
+      <c r="B525" s="2">
         <v>3132</v>
       </c>
     </row>
@@ -7038,7 +7051,7 @@
       <c r="A526" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="B526" s="3">
+      <c r="B526" s="2">
         <v>5129</v>
       </c>
     </row>
@@ -7046,7 +7059,7 @@
       <c r="A527" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="B527" s="3">
+      <c r="B527" s="2">
         <v>4563</v>
       </c>
     </row>
@@ -7054,7 +7067,7 @@
       <c r="A528" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="B528" s="3">
+      <c r="B528" s="2">
         <v>5604</v>
       </c>
     </row>
@@ -7062,7 +7075,7 @@
       <c r="A529" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="B529" s="3">
+      <c r="B529" s="2">
         <v>5245</v>
       </c>
     </row>
@@ -7070,7 +7083,7 @@
       <c r="A530" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="B530" s="3">
+      <c r="B530" s="2">
         <v>4691</v>
       </c>
     </row>
@@ -7078,7 +7091,7 @@
       <c r="A531" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="B531" s="3">
+      <c r="B531" s="2">
         <v>3007</v>
       </c>
     </row>
@@ -7086,7 +7099,7 @@
       <c r="A532" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="B532" s="3">
+      <c r="B532" s="2">
         <v>3871</v>
       </c>
     </row>
@@ -7094,7 +7107,7 @@
       <c r="A533" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="B533" s="3">
+      <c r="B533" s="2">
         <v>4034</v>
       </c>
     </row>
@@ -7102,7 +7115,7 @@
       <c r="A534" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="B534" s="3">
+      <c r="B534" s="2">
         <v>4821</v>
       </c>
     </row>
@@ -7110,7 +7123,7 @@
       <c r="A535" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="B535" s="3">
+      <c r="B535" s="2">
         <v>5837</v>
       </c>
     </row>
@@ -7118,7 +7131,7 @@
       <c r="A536" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="B536" s="3">
+      <c r="B536" s="2">
         <v>4443</v>
       </c>
     </row>
@@ -7126,7 +7139,7 @@
       <c r="A537" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="B537" s="3">
+      <c r="B537" s="2">
         <v>2009</v>
       </c>
     </row>
@@ -7134,7 +7147,7 @@
       <c r="A538" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="B538" s="3">
+      <c r="B538" s="2">
         <v>4673</v>
       </c>
     </row>
@@ -7142,7 +7155,7 @@
       <c r="A539" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="B539" s="3">
+      <c r="B539" s="2">
         <v>9911</v>
       </c>
     </row>
@@ -7150,7 +7163,7 @@
       <c r="A540" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="B540" s="3">
+      <c r="B540" s="2">
         <v>1725</v>
       </c>
     </row>
@@ -7158,7 +7171,7 @@
       <c r="A541" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="B541" s="3">
+      <c r="B541" s="2">
         <v>3074</v>
       </c>
     </row>
@@ -7166,7 +7179,7 @@
       <c r="A542" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="B542" s="3">
+      <c r="B542" s="2">
         <v>3937</v>
       </c>
     </row>
@@ -7174,7 +7187,7 @@
       <c r="A543" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="B543" s="3">
+      <c r="B543" s="2">
         <v>2338</v>
       </c>
     </row>
@@ -7182,7 +7195,7 @@
       <c r="A544" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="B544" s="3">
+      <c r="B544" s="2">
         <v>1898</v>
       </c>
     </row>
@@ -7190,7 +7203,7 @@
       <c r="A545" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="B545" s="3">
+      <c r="B545" s="2">
         <v>1690</v>
       </c>
     </row>
@@ -7198,7 +7211,7 @@
       <c r="A546" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="B546" s="3">
+      <c r="B546" s="2">
         <v>2782</v>
       </c>
     </row>
@@ -7206,7 +7219,7 @@
       <c r="A547" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="B547" s="3">
+      <c r="B547" s="2">
         <v>2976</v>
       </c>
     </row>
@@ -7214,7 +7227,7 @@
       <c r="A548" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="B548" s="3">
+      <c r="B548" s="2">
         <v>7576</v>
       </c>
     </row>
@@ -7222,7 +7235,7 @@
       <c r="A549" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="B549" s="3">
+      <c r="B549" s="2">
         <v>3884</v>
       </c>
     </row>
@@ -7230,7 +7243,7 @@
       <c r="A550" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="B550" s="3">
+      <c r="B550" s="2">
         <v>3248</v>
       </c>
     </row>
@@ -7238,7 +7251,7 @@
       <c r="A551" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="B551" s="3">
+      <c r="B551" s="2">
         <v>5627</v>
       </c>
     </row>
@@ -7246,7 +7259,7 @@
       <c r="A552" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="B552" s="3">
+      <c r="B552" s="2">
         <v>1263</v>
       </c>
     </row>
@@ -7254,7 +7267,7 @@
       <c r="A553" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="B553" s="3">
+      <c r="B553" s="2">
         <v>1754</v>
       </c>
     </row>
@@ -7262,7 +7275,7 @@
       <c r="A554" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="B554" s="3">
+      <c r="B554" s="2">
         <v>4317</v>
       </c>
     </row>
@@ -7270,7 +7283,7 @@
       <c r="A555" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="B555" s="3">
+      <c r="B555" s="2">
         <v>3298</v>
       </c>
     </row>
@@ -7278,7 +7291,7 @@
       <c r="A556" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="B556" s="3">
+      <c r="B556" s="2">
         <v>2811</v>
       </c>
     </row>
@@ -7286,7 +7299,7 @@
       <c r="A557" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="B557" s="3">
+      <c r="B557" s="2">
         <v>3426</v>
       </c>
     </row>
@@ -7294,7 +7307,7 @@
       <c r="A558" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="B558" s="3">
+      <c r="B558" s="2">
         <v>3051.73</v>
       </c>
     </row>
@@ -7302,7 +7315,7 @@
       <c r="A559" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="B559" s="3">
+      <c r="B559" s="2">
         <v>3611</v>
       </c>
     </row>
@@ -7310,7 +7323,7 @@
       <c r="A560" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="B560" s="3">
+      <c r="B560" s="2">
         <v>3256</v>
       </c>
     </row>
@@ -7318,7 +7331,7 @@
       <c r="A561" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="B561" s="3">
+      <c r="B561" s="2">
         <v>2214</v>
       </c>
     </row>
@@ -7326,7 +7339,7 @@
       <c r="A562" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="B562" s="3">
+      <c r="B562" s="2">
         <v>3758</v>
       </c>
     </row>
@@ -7334,7 +7347,7 @@
       <c r="A563" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="B563" s="3">
+      <c r="B563" s="2">
         <v>2546</v>
       </c>
     </row>
@@ -7342,7 +7355,7 @@
       <c r="A564" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="B564" s="3">
+      <c r="B564" s="2">
         <v>2578</v>
       </c>
     </row>
@@ -7350,7 +7363,7 @@
       <c r="A565" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="B565" s="3">
+      <c r="B565" s="2">
         <v>2816</v>
       </c>
     </row>
@@ -7358,7 +7371,7 @@
       <c r="A566" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="B566" s="3">
+      <c r="B566" s="2">
         <v>5179</v>
       </c>
     </row>
@@ -7366,7 +7379,7 @@
       <c r="A567" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="B567" s="3">
+      <c r="B567" s="2">
         <v>3463</v>
       </c>
     </row>
@@ -7374,7 +7387,7 @@
       <c r="A568" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="B568" s="3">
+      <c r="B568" s="2">
         <v>2325</v>
       </c>
     </row>
@@ -7382,7 +7395,7 @@
       <c r="A569" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="B569" s="3">
+      <c r="B569" s="2">
         <v>2796</v>
       </c>
     </row>
@@ -7390,7 +7403,7 @@
       <c r="A570" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="B570" s="3">
+      <c r="B570" s="2">
         <v>1992</v>
       </c>
     </row>
@@ -7398,7 +7411,7 @@
       <c r="A571" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="B571" s="3">
+      <c r="B571" s="2">
         <v>1834</v>
       </c>
     </row>
@@ -7406,7 +7419,7 @@
       <c r="A572" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="B572" s="3">
+      <c r="B572" s="2">
         <v>1506</v>
       </c>
     </row>
@@ -7414,7 +7427,7 @@
       <c r="A573" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="B573" s="3">
+      <c r="B573" s="2">
         <v>1747</v>
       </c>
     </row>
@@ -7422,7 +7435,7 @@
       <c r="A574" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="B574" s="3">
+      <c r="B574" s="2">
         <v>1554</v>
       </c>
     </row>
@@ -7430,7 +7443,7 @@
       <c r="A575" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="B575" s="3">
+      <c r="B575" s="2">
         <v>1587</v>
       </c>
     </row>
@@ -7438,7 +7451,7 @@
       <c r="A576" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="B576" s="3">
+      <c r="B576" s="2">
         <v>2305</v>
       </c>
     </row>
@@ -7446,7 +7459,7 @@
       <c r="A577" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="B577" s="3">
+      <c r="B577" s="2">
         <v>1510</v>
       </c>
     </row>
@@ -7454,7 +7467,7 @@
       <c r="A578" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="B578" s="3">
+      <c r="B578" s="2">
         <v>1918</v>
       </c>
     </row>
@@ -7462,7 +7475,7 @@
       <c r="A579" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="B579" s="3">
+      <c r="B579" s="2">
         <v>1452</v>
       </c>
     </row>
@@ -7470,7 +7483,7 @@
       <c r="A580" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="B580" s="3">
+      <c r="B580" s="2">
         <v>3191</v>
       </c>
     </row>
@@ -7478,7 +7491,7 @@
       <c r="A581" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="B581" s="3">
+      <c r="B581" s="2">
         <v>2708</v>
       </c>
     </row>
@@ -7486,7 +7499,7 @@
       <c r="A582" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="B582" s="3">
+      <c r="B582" s="2">
         <v>2272</v>
       </c>
     </row>
@@ -7494,7 +7507,7 @@
       <c r="A583" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="B583" s="3">
+      <c r="B583" s="2">
         <v>701</v>
       </c>
     </row>
@@ -7502,7 +7515,7 @@
       <c r="A584" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="B584" s="3">
+      <c r="B584" s="2">
         <v>1051</v>
       </c>
     </row>
@@ -7510,7 +7523,7 @@
       <c r="A585" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="B585" s="3">
+      <c r="B585" s="2">
         <v>1256</v>
       </c>
     </row>
@@ -7518,7 +7531,7 @@
       <c r="A586" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="B586" s="3">
+      <c r="B586" s="2">
         <v>2243</v>
       </c>
     </row>
@@ -7526,7 +7539,7 @@
       <c r="A587" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="B587" s="3">
+      <c r="B587" s="2">
         <v>2010</v>
       </c>
     </row>
@@ -7534,7 +7547,7 @@
       <c r="A588" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="B588" s="3">
+      <c r="B588" s="2">
         <v>1866</v>
       </c>
     </row>
@@ -7542,7 +7555,7 @@
       <c r="A589" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="B589" s="3">
+      <c r="B589" s="2">
         <v>1014</v>
       </c>
     </row>
@@ -7550,7 +7563,7 @@
       <c r="A590" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="B590" s="3">
+      <c r="B590" s="2">
         <v>1759</v>
       </c>
     </row>
@@ -7558,7 +7571,7 @@
       <c r="A591" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="B591" s="3">
+      <c r="B591" s="2">
         <v>1097</v>
       </c>
     </row>
@@ -7566,7 +7579,7 @@
       <c r="A592" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="B592" s="3">
+      <c r="B592" s="2">
         <v>1544</v>
       </c>
     </row>
@@ -7574,7 +7587,7 @@
       <c r="A593" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="B593" s="3">
+      <c r="B593" s="2">
         <v>1254</v>
       </c>
     </row>
@@ -7582,7 +7595,7 @@
       <c r="A594" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="B594" s="3">
+      <c r="B594" s="2">
         <v>492</v>
       </c>
     </row>
@@ -7590,7 +7603,7 @@
       <c r="A595" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="B595" s="3">
+      <c r="B595" s="2">
         <v>1394</v>
       </c>
     </row>
@@ -7598,7 +7611,7 @@
       <c r="A596" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="B596" s="3">
+      <c r="B596" s="2">
         <v>1932</v>
       </c>
     </row>
@@ -7606,7 +7619,7 @@
       <c r="A597" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="B597" s="3">
+      <c r="B597" s="2">
         <v>799</v>
       </c>
     </row>
@@ -7614,7 +7627,7 @@
       <c r="A598" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="B598" s="3">
+      <c r="B598" s="2">
         <v>1155</v>
       </c>
     </row>
@@ -7622,7 +7635,7 @@
       <c r="A599" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="B599" s="3">
+      <c r="B599" s="2">
         <v>1602</v>
       </c>
     </row>
@@ -7630,7 +7643,7 @@
       <c r="A600" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="B600" s="3">
+      <c r="B600" s="2">
         <v>1454</v>
       </c>
     </row>
@@ -7638,7 +7651,7 @@
       <c r="A601" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="B601" s="3">
+      <c r="B601" s="2">
         <v>1198</v>
       </c>
     </row>
@@ -7646,7 +7659,7 @@
       <c r="A602" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="B602" s="3">
+      <c r="B602" s="2">
         <v>1541</v>
       </c>
     </row>
@@ -7654,7 +7667,7 @@
       <c r="A603" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="B603" s="3">
+      <c r="B603" s="2">
         <v>1216</v>
       </c>
     </row>
@@ -7662,7 +7675,7 @@
       <c r="A604" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="B604" s="3">
+      <c r="B604" s="2">
         <v>1854</v>
       </c>
     </row>
@@ -7670,7 +7683,7 @@
       <c r="A605" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="B605" s="3">
+      <c r="B605" s="2">
         <v>1670</v>
       </c>
     </row>
@@ -7678,7 +7691,7 @@
       <c r="A606" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="B606" s="3">
+      <c r="B606" s="2">
         <v>509</v>
       </c>
     </row>
@@ -7686,7 +7699,7 @@
       <c r="A607" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="B607" s="3">
+      <c r="B607" s="2">
         <v>1229</v>
       </c>
     </row>
@@ -7694,7 +7707,7 @@
       <c r="A608" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="B608" s="3">
+      <c r="B608" s="2">
         <v>1073</v>
       </c>
     </row>
@@ -7702,7 +7715,7 @@
       <c r="A609" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="B609" s="3">
+      <c r="B609" s="2">
         <v>837</v>
       </c>
     </row>
@@ -7710,7 +7723,7 @@
       <c r="A610" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="B610" s="3">
+      <c r="B610" s="2">
         <v>953</v>
       </c>
     </row>
@@ -7718,7 +7731,7 @@
       <c r="A611" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="B611" s="3">
+      <c r="B611" s="2">
         <v>925</v>
       </c>
     </row>
@@ -7726,7 +7739,7 @@
       <c r="A612" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="B612" s="3">
+      <c r="B612" s="2">
         <v>879</v>
       </c>
     </row>
@@ -7734,7 +7747,7 @@
       <c r="A613" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="B613" s="3">
+      <c r="B613" s="2">
         <v>1109</v>
       </c>
     </row>
@@ -7742,7 +7755,7 @@
       <c r="A614" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="B614" s="3">
+      <c r="B614" s="2">
         <v>813</v>
       </c>
     </row>
@@ -7750,7 +7763,7 @@
       <c r="A615" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="B615" s="3">
+      <c r="B615" s="2">
         <v>1013</v>
       </c>
     </row>
@@ -7758,7 +7771,7 @@
       <c r="A616" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="B616" s="3">
+      <c r="B616" s="2">
         <v>1184</v>
       </c>
     </row>
@@ -7766,7 +7779,7 @@
       <c r="A617" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="B617" s="3">
+      <c r="B617" s="2">
         <v>830</v>
       </c>
     </row>
@@ -7774,7 +7787,7 @@
       <c r="A618" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="B618" s="3">
+      <c r="B618" s="2">
         <v>603</v>
       </c>
     </row>
@@ -7782,7 +7795,7 @@
       <c r="A619" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="B619" s="3">
+      <c r="B619" s="2">
         <v>754</v>
       </c>
     </row>
@@ -7790,7 +7803,7 @@
       <c r="A620" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="B620" s="3">
+      <c r="B620" s="2">
         <v>605</v>
       </c>
     </row>
@@ -7798,7 +7811,7 @@
       <c r="A621" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="B621" s="3">
+      <c r="B621" s="2">
         <v>689</v>
       </c>
     </row>
@@ -7806,7 +7819,7 @@
       <c r="A622" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="B622" s="3">
+      <c r="B622" s="2">
         <v>1216</v>
       </c>
     </row>
@@ -7814,7 +7827,7 @@
       <c r="A623" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="B623" s="3">
+      <c r="B623" s="2">
         <v>518</v>
       </c>
     </row>
@@ -7822,7 +7835,7 @@
       <c r="A624" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="B624" s="3">
+      <c r="B624" s="2">
         <v>596</v>
       </c>
     </row>
@@ -7830,7 +7843,7 @@
       <c r="A625" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="B625" s="3">
+      <c r="B625" s="2">
         <v>582</v>
       </c>
     </row>
@@ -7838,7 +7851,7 @@
       <c r="A626" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="B626" s="3">
+      <c r="B626" s="2">
         <v>795</v>
       </c>
     </row>
@@ -7846,7 +7859,7 @@
       <c r="A627" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="B627" s="3">
+      <c r="B627" s="2">
         <v>1327</v>
       </c>
     </row>
@@ -7854,7 +7867,7 @@
       <c r="A628" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="B628" s="3">
+      <c r="B628" s="2">
         <v>50</v>
       </c>
     </row>
@@ -7862,7 +7875,7 @@
       <c r="A629" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="B629" s="3">
+      <c r="B629" s="2">
         <v>58</v>
       </c>
     </row>
@@ -7870,7 +7883,7 @@
       <c r="A630" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="B630" s="3">
+      <c r="B630" s="2">
         <v>53</v>
       </c>
     </row>
@@ -7878,7 +7891,7 @@
       <c r="A631" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="B631" s="3">
+      <c r="B631" s="2">
         <v>67</v>
       </c>
     </row>
@@ -7886,7 +7899,7 @@
       <c r="A632" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="B632" s="3">
+      <c r="B632" s="2">
         <v>105</v>
       </c>
     </row>
@@ -7894,7 +7907,7 @@
       <c r="A633" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="B633" s="3">
+      <c r="B633" s="2">
         <v>116</v>
       </c>
     </row>
@@ -7902,7 +7915,7 @@
       <c r="A634" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="B634" s="3">
+      <c r="B634" s="2">
         <v>54</v>
       </c>
     </row>
@@ -7910,7 +7923,7 @@
       <c r="A635" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="B635" s="3">
+      <c r="B635" s="2">
         <v>55</v>
       </c>
     </row>
@@ -7918,7 +7931,7 @@
       <c r="A636" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="B636" s="3">
+      <c r="B636" s="2">
         <v>231</v>
       </c>
     </row>
@@ -7926,7 +7939,7 @@
       <c r="A637" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="B637" s="3">
+      <c r="B637" s="2">
         <v>97</v>
       </c>
     </row>
@@ -7934,7 +7947,7 @@
       <c r="A638" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="B638" s="3">
+      <c r="B638" s="2">
         <v>65</v>
       </c>
     </row>
@@ -7942,7 +7955,7 @@
       <c r="A639" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="B639" s="3">
+      <c r="B639" s="2">
         <v>64</v>
       </c>
     </row>
@@ -7950,7 +7963,7 @@
       <c r="A640" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="B640" s="3">
+      <c r="B640" s="2">
         <v>87</v>
       </c>
     </row>
@@ -7958,7 +7971,7 @@
       <c r="A641" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="B641" s="3">
+      <c r="B641" s="2">
         <v>416</v>
       </c>
     </row>
@@ -7966,7 +7979,7 @@
       <c r="A642" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="B642" s="3">
+      <c r="B642" s="2">
         <v>409</v>
       </c>
     </row>
@@ -7974,7 +7987,7 @@
       <c r="A643" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="B643" s="3">
+      <c r="B643" s="2">
         <v>224</v>
       </c>
     </row>
@@ -7982,7 +7995,7 @@
       <c r="A644" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="B644" s="3">
+      <c r="B644" s="2">
         <v>141</v>
       </c>
     </row>
@@ -7990,7 +8003,7 @@
       <c r="A645" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="B645" s="3">
+      <c r="B645" s="2">
         <v>153</v>
       </c>
     </row>
@@ -7998,7 +8011,7 @@
       <c r="A646" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="B646" s="3">
+      <c r="B646" s="2">
         <v>344</v>
       </c>
     </row>
@@ -8006,7 +8019,7 @@
       <c r="A647" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="B647" s="3">
+      <c r="B647" s="2">
         <v>4353</v>
       </c>
     </row>
@@ -8014,7 +8027,7 @@
       <c r="A648" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="B648" s="3">
+      <c r="B648" s="2">
         <v>1442</v>
       </c>
     </row>
@@ -8022,7 +8035,7 @@
       <c r="A649" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="B649" s="3">
+      <c r="B649" s="2">
         <v>360</v>
       </c>
     </row>
@@ -8030,7 +8043,7 @@
       <c r="A650" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="B650" s="3">
+      <c r="B650" s="2">
         <v>4186</v>
       </c>
     </row>
@@ -8038,7 +8051,7 @@
       <c r="A651" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="B651" s="3">
+      <c r="B651" s="2">
         <v>1686</v>
       </c>
     </row>
@@ -8046,7 +8059,7 @@
       <c r="A652" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="B652" s="3">
+      <c r="B652" s="2">
         <v>5299</v>
       </c>
     </row>
